--- a/Unity/Assets/Config/Excel/PropertyConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PropertyConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>##var</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Def</t>
+  </si>
+  <si>
+    <t>Crit</t>
   </si>
 </sst>
 </file>
@@ -1058,10 +1061,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1132,7 +1135,6 @@
       <c r="B5" s="4">
         <v>1001</v>
       </c>
-      <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1156,31 +1158,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="4">
+    <row r="8" spans="4:5">
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="4">
         <v>1002</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E9" s="5">
         <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="4:5">
-      <c r="D9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="5">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="5">
         <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/PropertyConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PropertyConfig.xlsx
@@ -50,7 +50,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>map,PropertyType,int</t>
+    <t>map,GamePropertyType,int</t>
   </si>
   <si>
     <t>##group</t>
@@ -1064,7 +1064,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>

--- a/Unity/Assets/Config/Excel/PropertyConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PropertyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23550" windowHeight="11250" tabRatio="809"/>
+    <workbookView windowWidth="25140" windowHeight="10065" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="PropertyConfig" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>属性配置</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>AOI</t>
   </si>
   <si>
     <t>MaxHp</t>
@@ -1061,10 +1067,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1139,7 +1145,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="5">
-        <v>100</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="6" spans="4:5">
@@ -1147,7 +1153,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="5">
-        <v>20</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="7" spans="4:5">
@@ -1155,7 +1161,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="4:5">
@@ -1163,41 +1169,73 @@
         <v>16</v>
       </c>
       <c r="E8" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="4">
-        <v>1002</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5">
       <c r="D9" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5">
-        <v>150</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E10" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="4:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="4">
+        <v>1002</v>
+      </c>
       <c r="D11" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" s="5">
-        <v>15</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="12" spans="4:5">
       <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="D14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E14" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5">
+      <c r="D15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5">
+      <c r="D16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="5">
         <v>25</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/PropertyConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PropertyConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -455,12 +455,129 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -587,7 +704,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,34 +716,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,7 +829,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,6 +858,31 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1067,10 +1209,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1138,104 +1280,164 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="4">
+      <c r="B5" s="12">
         <v>1001</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="14">
         <v>60000</v>
       </c>
     </row>
-    <row r="6" spans="4:5">
+    <row r="6" spans="2:5">
+      <c r="B6" s="15"/>
       <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="16">
         <v>15000</v>
       </c>
     </row>
-    <row r="7" spans="4:5">
+    <row r="7" spans="2:5">
+      <c r="B7" s="15"/>
       <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="16">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="4:5">
+    <row r="8" spans="2:5">
+      <c r="B8" s="15"/>
       <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="16">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="4:5">
+    <row r="9" spans="2:5">
+      <c r="B9" s="15"/>
       <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="4:5">
-      <c r="D10" s="4" t="s">
+    <row r="10" spans="2:5">
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="4">
+      <c r="B11" s="12">
         <v>1002</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="14">
         <v>60000</v>
       </c>
     </row>
-    <row r="12" spans="4:5">
+    <row r="12" spans="2:5">
+      <c r="B12" s="15"/>
       <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="16">
         <v>15000</v>
       </c>
     </row>
-    <row r="13" spans="4:5">
+    <row r="13" spans="2:5">
+      <c r="B13" s="15"/>
       <c r="D13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="16">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="4:5">
+    <row r="14" spans="2:5">
+      <c r="B14" s="15"/>
       <c r="D14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="16">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="4:5">
+    <row r="15" spans="2:5">
+      <c r="B15" s="15"/>
       <c r="D15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="16">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="4:5">
-      <c r="D16" s="4" t="s">
+    <row r="16" spans="2:5">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="12">
+        <v>1003</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="20">
+        <v>1004</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="22">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="20">
+        <v>1005</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="22">
         <v>25</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/PropertyConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PropertyConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -77,13 +77,13 @@
     <t>MaxHp</t>
   </si>
   <si>
-    <t>Atk</t>
-  </si>
-  <si>
-    <t>Def</t>
-  </si>
-  <si>
-    <t>Crit</t>
+    <t>AtkAdd</t>
+  </si>
+  <si>
+    <t>DefAdd</t>
+  </si>
+  <si>
+    <t>CritAdd</t>
   </si>
 </sst>
 </file>
@@ -829,7 +829,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -883,6 +883,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1209,10 +1227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1441,6 +1459,37 @@
         <v>25</v>
       </c>
     </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="23">
+        <v>1006</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="26"/>
+      <c r="D22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="27">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="30">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D1:E1"/>

--- a/Unity/Assets/Config/Excel/PropertyConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PropertyConfig.xlsx
@@ -1230,7 +1230,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>

--- a/Unity/Assets/Config/Excel/PropertyConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PropertyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="10065" tabRatio="809"/>
+    <workbookView windowWidth="22095" windowHeight="7740" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="PropertyConfig" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="20">
   <si>
     <t>##var</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>CritAdd</t>
+  </si>
+  <si>
+    <t>HitAdd</t>
   </si>
 </sst>
 </file>
@@ -829,7 +832,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -859,6 +862,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -869,20 +897,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -893,8 +914,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1227,10 +1259,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1460,42 +1492,1088 @@
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="23">
+      <c r="B21" s="12">
         <v>1006</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="25">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="14">
         <v>1000</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="26"/>
+      <c r="B22" s="15"/>
       <c r="D22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="16">
         <v>500</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29" t="s">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="19">
         <v>500</v>
       </c>
     </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="23">
+        <v>1007</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="26">
+        <v>1008</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="26">
+        <v>1009</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="27">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="26">
+        <v>1010</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="27">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="26">
+        <v>1011</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="27">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="26">
+        <v>1012</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="27">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="26">
+        <v>1013</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="27">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="26">
+        <v>1014</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="27">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="26">
+        <v>1015</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="27">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="28">
+        <v>1016</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="30">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="31">
+        <v>1020</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="33">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="34">
+        <v>1021</v>
+      </c>
+      <c r="C35" s="35"/>
+      <c r="D35" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="37">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="34">
+        <v>1022</v>
+      </c>
+      <c r="C36" s="35"/>
+      <c r="D36" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="37">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="34">
+        <v>1023</v>
+      </c>
+      <c r="C37" s="35"/>
+      <c r="D37" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="38">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="34">
+        <v>1024</v>
+      </c>
+      <c r="C38" s="35"/>
+      <c r="D38" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="37">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="34">
+        <v>1025</v>
+      </c>
+      <c r="C39" s="35"/>
+      <c r="D39" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="37">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="34">
+        <v>1026</v>
+      </c>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="38">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="34">
+        <v>1027</v>
+      </c>
+      <c r="C41" s="35"/>
+      <c r="D41" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="37">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="34">
+        <v>1028</v>
+      </c>
+      <c r="C42" s="35"/>
+      <c r="D42" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="37">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="34">
+        <v>1029</v>
+      </c>
+      <c r="C43" s="35"/>
+      <c r="D43" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="38">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="31">
+        <v>1030</v>
+      </c>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="39">
+        <v>1031</v>
+      </c>
+      <c r="C45" s="35"/>
+      <c r="D45" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="39">
+        <v>1032</v>
+      </c>
+      <c r="C46" s="35"/>
+      <c r="D46" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="39">
+        <v>1033</v>
+      </c>
+      <c r="C47" s="35"/>
+      <c r="D47" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="39">
+        <v>1034</v>
+      </c>
+      <c r="C48" s="35"/>
+      <c r="D48" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="39">
+        <v>1035</v>
+      </c>
+      <c r="C49" s="35"/>
+      <c r="D49" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="37">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="39">
+        <v>1036</v>
+      </c>
+      <c r="C50" s="35"/>
+      <c r="D50" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="40">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="39">
+        <v>1037</v>
+      </c>
+      <c r="C51" s="35"/>
+      <c r="D51" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="37">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="39">
+        <v>1038</v>
+      </c>
+      <c r="C52" s="35"/>
+      <c r="D52" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="37">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="39">
+        <v>1039</v>
+      </c>
+      <c r="C53" s="35"/>
+      <c r="D53" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="12">
+        <v>1040</v>
+      </c>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="17"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="43">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="12">
+        <v>1041</v>
+      </c>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="33">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="17"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="43">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="12">
+        <v>1042</v>
+      </c>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="33">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="17"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="43">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="12">
+        <v>1043</v>
+      </c>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="33">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="17"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="43">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="12">
+        <v>1044</v>
+      </c>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="33">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="17"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="43">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="12">
+        <v>1045</v>
+      </c>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="33">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="17"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="43">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="12">
+        <v>1046</v>
+      </c>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="33">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="17"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="43">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="12">
+        <v>1047</v>
+      </c>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="33">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="17"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="12">
+        <v>1048</v>
+      </c>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="33">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="17"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="43">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="12">
+        <v>1049</v>
+      </c>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="40">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="17"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="43">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="12">
+        <v>1050</v>
+      </c>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="17"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="43">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" s="12">
+        <v>1051</v>
+      </c>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="33">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" s="17"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="43">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" s="12">
+        <v>1052</v>
+      </c>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="33">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" s="17"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="43">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" s="12">
+        <v>1053</v>
+      </c>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" s="33">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="17"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="43">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="12">
+        <v>1054</v>
+      </c>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="33">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" s="17"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="43">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="12">
+        <v>1055</v>
+      </c>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" s="33">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="17"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="43">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" s="12">
+        <v>1056</v>
+      </c>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" s="33">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="17"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="43">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="12">
+        <v>1057</v>
+      </c>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" s="33">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="17"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="12">
+        <v>1058</v>
+      </c>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" s="33">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="17"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="43">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" s="12">
+        <v>1059</v>
+      </c>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" s="40">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" s="17"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="43">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" s="12">
+        <v>1060</v>
+      </c>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" s="33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" s="17"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="43">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" s="12">
+        <v>1061</v>
+      </c>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" s="33">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" s="17"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="43">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" s="12">
+        <v>1062</v>
+      </c>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98" s="33">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="17"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="43">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" s="12">
+        <v>1063</v>
+      </c>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="33">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" s="17"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="43">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" s="12">
+        <v>1064</v>
+      </c>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" s="33">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" s="17"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="43">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" s="12">
+        <v>1065</v>
+      </c>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" s="33">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" s="17"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="43">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" s="12">
+        <v>1066</v>
+      </c>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106" s="33">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" s="17"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="43">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" s="12">
+        <v>1067</v>
+      </c>
+      <c r="C108" s="32"/>
+      <c r="D108" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108" s="33">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" s="17"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" s="12">
+        <v>1068</v>
+      </c>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" s="33">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" s="17"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="43">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" s="12">
+        <v>1069</v>
+      </c>
+      <c r="C112" s="36"/>
+      <c r="D112" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E112" s="40">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" s="17"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="43">
+        <v>1240</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="38">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B112:B113"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/PropertyConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PropertyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22095" windowHeight="7740" tabRatio="809"/>
+    <workbookView windowWidth="18465" windowHeight="8325" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="PropertyConfig" sheetId="6" r:id="rId1"/>
@@ -832,7 +832,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -889,50 +889,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1262,7 +1224,7 @@
   <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A1" sqref="$A1:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1526,351 +1488,351 @@
       <c r="B24" s="23">
         <v>1007</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="25">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="14">
         <v>160</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="26">
+      <c r="B25" s="24">
         <v>1008</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="16">
         <v>200</v>
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="26">
+      <c r="B26" s="24">
         <v>1009</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="16">
         <v>240</v>
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="26">
+      <c r="B27" s="24">
         <v>1010</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="16">
         <v>280</v>
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="26">
+      <c r="B28" s="24">
         <v>1011</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="16">
         <v>320</v>
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="26">
+      <c r="B29" s="24">
         <v>1012</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="16">
         <v>360</v>
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="26">
+      <c r="B30" s="24">
         <v>1013</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="16">
         <v>400</v>
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="26">
+      <c r="B31" s="24">
         <v>1014</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="16">
         <v>440</v>
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="26">
+      <c r="B32" s="24">
         <v>1015</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="16">
         <v>480</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="28">
+      <c r="B33" s="24">
         <v>1016</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="30">
+      <c r="C33" s="25"/>
+      <c r="D33" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="16">
         <v>520</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="31">
+      <c r="B34" s="23">
         <v>1020</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="33">
+      <c r="C34" s="13"/>
+      <c r="D34" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="14">
         <v>360</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="34">
+      <c r="B35" s="24">
         <v>1021</v>
       </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="37">
+      <c r="C35" s="25"/>
+      <c r="D35" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="16">
         <v>440</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="34">
+      <c r="B36" s="24">
         <v>1022</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="37">
+      <c r="C36" s="25"/>
+      <c r="D36" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="16">
         <v>520</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="34">
+      <c r="B37" s="24">
         <v>1023</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="38">
+      <c r="C37" s="25"/>
+      <c r="D37" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="16">
         <v>600</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="34">
+      <c r="B38" s="24">
         <v>1024</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="37">
+      <c r="C38" s="25"/>
+      <c r="D38" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="16">
         <v>680</v>
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="34">
+      <c r="B39" s="24">
         <v>1025</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="37">
+      <c r="C39" s="25"/>
+      <c r="D39" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="16">
         <v>760</v>
       </c>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="34">
+      <c r="B40" s="24">
         <v>1026</v>
       </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="38">
+      <c r="C40" s="25"/>
+      <c r="D40" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="16">
         <v>840</v>
       </c>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="34">
+      <c r="B41" s="24">
         <v>1027</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="37">
+      <c r="C41" s="25"/>
+      <c r="D41" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="16">
         <v>920</v>
       </c>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="34">
+      <c r="B42" s="24">
         <v>1028</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="37">
+      <c r="C42" s="25"/>
+      <c r="D42" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="16">
         <v>1000</v>
       </c>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="34">
+      <c r="B43" s="24">
         <v>1029</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="38">
+      <c r="C43" s="25"/>
+      <c r="D43" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="16">
         <v>1080</v>
       </c>
     </row>
     <row r="44" spans="2:5">
-      <c r="B44" s="31">
+      <c r="B44" s="23">
         <v>1030</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32" t="s">
+      <c r="C44" s="13"/>
+      <c r="D44" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="33">
+      <c r="E44" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="39">
+      <c r="B45" s="24">
         <v>1031</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="36" t="s">
+      <c r="C45" s="25"/>
+      <c r="D45" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="37">
+      <c r="E45" s="16">
         <v>20</v>
       </c>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="39">
+      <c r="B46" s="24">
         <v>1032</v>
       </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="36" t="s">
+      <c r="C46" s="25"/>
+      <c r="D46" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="37">
+      <c r="E46" s="16">
         <v>30</v>
       </c>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="39">
+      <c r="B47" s="24">
         <v>1033</v>
       </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="36" t="s">
+      <c r="C47" s="25"/>
+      <c r="D47" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="40">
+      <c r="E47" s="16">
         <v>40</v>
       </c>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="39">
+      <c r="B48" s="24">
         <v>1034</v>
       </c>
-      <c r="C48" s="35"/>
-      <c r="D48" s="36" t="s">
+      <c r="C48" s="25"/>
+      <c r="D48" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="37">
+      <c r="E48" s="16">
         <v>50</v>
       </c>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="39">
+      <c r="B49" s="24">
         <v>1035</v>
       </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="36" t="s">
+      <c r="C49" s="25"/>
+      <c r="D49" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="37">
+      <c r="E49" s="16">
         <v>60</v>
       </c>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="39">
+      <c r="B50" s="24">
         <v>1036</v>
       </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="36" t="s">
+      <c r="C50" s="25"/>
+      <c r="D50" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="40">
+      <c r="E50" s="16">
         <v>70</v>
       </c>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="39">
+      <c r="B51" s="24">
         <v>1037</v>
       </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="36" t="s">
+      <c r="C51" s="25"/>
+      <c r="D51" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="37">
+      <c r="E51" s="16">
         <v>80</v>
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="39">
+      <c r="B52" s="24">
         <v>1038</v>
       </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="36" t="s">
+      <c r="C52" s="25"/>
+      <c r="D52" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="37">
+      <c r="E52" s="16">
         <v>90</v>
       </c>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" s="39">
+      <c r="B53" s="24">
         <v>1039</v>
       </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="36" t="s">
+      <c r="C53" s="25"/>
+      <c r="D53" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="40">
+      <c r="E53" s="16">
         <v>100</v>
       </c>
     </row>
@@ -1878,21 +1840,21 @@
       <c r="B54" s="12">
         <v>1040</v>
       </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="33">
+      <c r="C54" s="13"/>
+      <c r="D54" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="17"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="43">
+      <c r="C55" s="18"/>
+      <c r="D55" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="19">
         <v>160</v>
       </c>
     </row>
@@ -1900,21 +1862,21 @@
       <c r="B56" s="12">
         <v>1041</v>
       </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="33">
+      <c r="C56" s="13"/>
+      <c r="D56" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="14">
         <v>220</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" s="17"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" s="43">
+      <c r="C57" s="18"/>
+      <c r="D57" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="19">
         <v>280</v>
       </c>
     </row>
@@ -1922,21 +1884,21 @@
       <c r="B58" s="12">
         <v>1042</v>
       </c>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="33">
+      <c r="C58" s="13"/>
+      <c r="D58" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="14">
         <v>340</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="17"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="43">
+      <c r="C59" s="18"/>
+      <c r="D59" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="19">
         <v>400</v>
       </c>
     </row>
@@ -1944,21 +1906,21 @@
       <c r="B60" s="12">
         <v>1043</v>
       </c>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="33">
+      <c r="C60" s="13"/>
+      <c r="D60" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="14">
         <v>460</v>
       </c>
     </row>
     <row r="61" spans="2:5">
       <c r="B61" s="17"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="43">
+      <c r="C61" s="18"/>
+      <c r="D61" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="19">
         <v>520</v>
       </c>
     </row>
@@ -1966,21 +1928,21 @@
       <c r="B62" s="12">
         <v>1044</v>
       </c>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="33">
+      <c r="C62" s="13"/>
+      <c r="D62" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="14">
         <v>580</v>
       </c>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" s="17"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="43">
+      <c r="C63" s="18"/>
+      <c r="D63" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="19">
         <v>640</v>
       </c>
     </row>
@@ -1988,21 +1950,21 @@
       <c r="B64" s="12">
         <v>1045</v>
       </c>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="33">
+      <c r="C64" s="13"/>
+      <c r="D64" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="14">
         <v>700</v>
       </c>
     </row>
     <row r="65" spans="2:5">
       <c r="B65" s="17"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" s="43">
+      <c r="C65" s="18"/>
+      <c r="D65" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="19">
         <v>760</v>
       </c>
     </row>
@@ -2010,21 +1972,21 @@
       <c r="B66" s="12">
         <v>1046</v>
       </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E66" s="33">
+      <c r="C66" s="13"/>
+      <c r="D66" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="14">
         <v>820</v>
       </c>
     </row>
     <row r="67" spans="2:5">
       <c r="B67" s="17"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="43">
+      <c r="C67" s="18"/>
+      <c r="D67" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="19">
         <v>880</v>
       </c>
     </row>
@@ -2032,21 +1994,21 @@
       <c r="B68" s="12">
         <v>1047</v>
       </c>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" s="33">
+      <c r="C68" s="13"/>
+      <c r="D68" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="14">
         <v>940</v>
       </c>
     </row>
     <row r="69" spans="2:5">
       <c r="B69" s="17"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" s="43">
+      <c r="C69" s="18"/>
+      <c r="D69" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="19">
         <v>1000</v>
       </c>
     </row>
@@ -2054,21 +2016,21 @@
       <c r="B70" s="12">
         <v>1048</v>
       </c>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E70" s="33">
+      <c r="C70" s="13"/>
+      <c r="D70" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="14">
         <v>1060</v>
       </c>
     </row>
     <row r="71" spans="2:5">
       <c r="B71" s="17"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="43">
+      <c r="C71" s="18"/>
+      <c r="D71" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="19">
         <v>1120</v>
       </c>
     </row>
@@ -2076,21 +2038,21 @@
       <c r="B72" s="12">
         <v>1049</v>
       </c>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E72" s="40">
+      <c r="C72" s="25"/>
+      <c r="D72" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="16">
         <v>1180</v>
       </c>
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="17"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="43">
+      <c r="C73" s="18"/>
+      <c r="D73" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="19">
         <v>1240</v>
       </c>
     </row>
@@ -2098,21 +2060,21 @@
       <c r="B74" s="12">
         <v>1050</v>
       </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E74" s="33">
+      <c r="C74" s="13"/>
+      <c r="D74" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="75" spans="2:5">
       <c r="B75" s="17"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="43">
+      <c r="C75" s="18"/>
+      <c r="D75" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="19">
         <v>160</v>
       </c>
     </row>
@@ -2120,21 +2082,21 @@
       <c r="B76" s="12">
         <v>1051</v>
       </c>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E76" s="33">
+      <c r="C76" s="13"/>
+      <c r="D76" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="14">
         <v>220</v>
       </c>
     </row>
     <row r="77" spans="2:5">
       <c r="B77" s="17"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77" s="43">
+      <c r="C77" s="18"/>
+      <c r="D77" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="19">
         <v>280</v>
       </c>
     </row>
@@ -2142,21 +2104,21 @@
       <c r="B78" s="12">
         <v>1052</v>
       </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E78" s="33">
+      <c r="C78" s="13"/>
+      <c r="D78" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="14">
         <v>340</v>
       </c>
     </row>
     <row r="79" spans="2:5">
       <c r="B79" s="17"/>
-      <c r="C79" s="41"/>
-      <c r="D79" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" s="43">
+      <c r="C79" s="18"/>
+      <c r="D79" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="19">
         <v>400</v>
       </c>
     </row>
@@ -2164,21 +2126,21 @@
       <c r="B80" s="12">
         <v>1053</v>
       </c>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E80" s="33">
+      <c r="C80" s="13"/>
+      <c r="D80" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" s="14">
         <v>460</v>
       </c>
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="17"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E81" s="43">
+      <c r="C81" s="18"/>
+      <c r="D81" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="19">
         <v>520</v>
       </c>
     </row>
@@ -2186,21 +2148,21 @@
       <c r="B82" s="12">
         <v>1054</v>
       </c>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E82" s="33">
+      <c r="C82" s="13"/>
+      <c r="D82" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="14">
         <v>580</v>
       </c>
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="17"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E83" s="43">
+      <c r="C83" s="18"/>
+      <c r="D83" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="19">
         <v>640</v>
       </c>
     </row>
@@ -2208,21 +2170,21 @@
       <c r="B84" s="12">
         <v>1055</v>
       </c>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E84" s="33">
+      <c r="C84" s="13"/>
+      <c r="D84" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" s="14">
         <v>700</v>
       </c>
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="17"/>
-      <c r="C85" s="41"/>
-      <c r="D85" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" s="43">
+      <c r="C85" s="18"/>
+      <c r="D85" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="19">
         <v>760</v>
       </c>
     </row>
@@ -2230,21 +2192,21 @@
       <c r="B86" s="12">
         <v>1056</v>
       </c>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E86" s="33">
+      <c r="C86" s="13"/>
+      <c r="D86" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" s="14">
         <v>820</v>
       </c>
     </row>
     <row r="87" spans="2:5">
       <c r="B87" s="17"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87" s="43">
+      <c r="C87" s="18"/>
+      <c r="D87" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="19">
         <v>880</v>
       </c>
     </row>
@@ -2252,21 +2214,21 @@
       <c r="B88" s="12">
         <v>1057</v>
       </c>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E88" s="33">
+      <c r="C88" s="13"/>
+      <c r="D88" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" s="14">
         <v>940</v>
       </c>
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="17"/>
-      <c r="C89" s="41"/>
-      <c r="D89" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E89" s="43">
+      <c r="C89" s="18"/>
+      <c r="D89" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="19">
         <v>1000</v>
       </c>
     </row>
@@ -2274,21 +2236,21 @@
       <c r="B90" s="12">
         <v>1058</v>
       </c>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E90" s="33">
+      <c r="C90" s="13"/>
+      <c r="D90" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" s="14">
         <v>1060</v>
       </c>
     </row>
     <row r="91" spans="2:5">
       <c r="B91" s="17"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91" s="43">
+      <c r="C91" s="18"/>
+      <c r="D91" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="19">
         <v>1120</v>
       </c>
     </row>
@@ -2296,21 +2258,21 @@
       <c r="B92" s="12">
         <v>1059</v>
       </c>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E92" s="40">
+      <c r="C92" s="25"/>
+      <c r="D92" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" s="16">
         <v>1180</v>
       </c>
     </row>
     <row r="93" spans="2:5">
       <c r="B93" s="17"/>
-      <c r="C93" s="41"/>
-      <c r="D93" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E93" s="43">
+      <c r="C93" s="18"/>
+      <c r="D93" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="19">
         <v>1240</v>
       </c>
     </row>
@@ -2318,21 +2280,21 @@
       <c r="B94" s="12">
         <v>1060</v>
       </c>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E94" s="33">
+      <c r="C94" s="13"/>
+      <c r="D94" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="95" spans="2:5">
       <c r="B95" s="17"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E95" s="43">
+      <c r="C95" s="18"/>
+      <c r="D95" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="19">
         <v>160</v>
       </c>
     </row>
@@ -2340,21 +2302,21 @@
       <c r="B96" s="12">
         <v>1061</v>
       </c>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E96" s="33">
+      <c r="C96" s="13"/>
+      <c r="D96" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" s="14">
         <v>220</v>
       </c>
     </row>
     <row r="97" spans="2:5">
       <c r="B97" s="17"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E97" s="43">
+      <c r="C97" s="18"/>
+      <c r="D97" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="19">
         <v>280</v>
       </c>
     </row>
@@ -2362,21 +2324,21 @@
       <c r="B98" s="12">
         <v>1062</v>
       </c>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E98" s="33">
+      <c r="C98" s="13"/>
+      <c r="D98" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98" s="14">
         <v>340</v>
       </c>
     </row>
     <row r="99" spans="2:5">
       <c r="B99" s="17"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E99" s="43">
+      <c r="C99" s="18"/>
+      <c r="D99" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="19">
         <v>400</v>
       </c>
     </row>
@@ -2384,21 +2346,21 @@
       <c r="B100" s="12">
         <v>1063</v>
       </c>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E100" s="33">
+      <c r="C100" s="13"/>
+      <c r="D100" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="14">
         <v>460</v>
       </c>
     </row>
     <row r="101" spans="2:5">
       <c r="B101" s="17"/>
-      <c r="C101" s="41"/>
-      <c r="D101" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E101" s="43">
+      <c r="C101" s="18"/>
+      <c r="D101" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="19">
         <v>520</v>
       </c>
     </row>
@@ -2406,21 +2368,21 @@
       <c r="B102" s="12">
         <v>1064</v>
       </c>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E102" s="33">
+      <c r="C102" s="13"/>
+      <c r="D102" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" s="14">
         <v>580</v>
       </c>
     </row>
     <row r="103" spans="2:5">
       <c r="B103" s="17"/>
-      <c r="C103" s="41"/>
-      <c r="D103" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E103" s="43">
+      <c r="C103" s="18"/>
+      <c r="D103" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="19">
         <v>640</v>
       </c>
     </row>
@@ -2428,21 +2390,21 @@
       <c r="B104" s="12">
         <v>1065</v>
       </c>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E104" s="33">
+      <c r="C104" s="13"/>
+      <c r="D104" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" s="14">
         <v>700</v>
       </c>
     </row>
     <row r="105" spans="2:5">
       <c r="B105" s="17"/>
-      <c r="C105" s="41"/>
-      <c r="D105" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E105" s="43">
+      <c r="C105" s="18"/>
+      <c r="D105" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="19">
         <v>760</v>
       </c>
     </row>
@@ -2450,21 +2412,21 @@
       <c r="B106" s="12">
         <v>1066</v>
       </c>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E106" s="33">
+      <c r="C106" s="13"/>
+      <c r="D106" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106" s="14">
         <v>820</v>
       </c>
     </row>
     <row r="107" spans="2:5">
       <c r="B107" s="17"/>
-      <c r="C107" s="41"/>
-      <c r="D107" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E107" s="43">
+      <c r="C107" s="18"/>
+      <c r="D107" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="19">
         <v>880</v>
       </c>
     </row>
@@ -2472,21 +2434,21 @@
       <c r="B108" s="12">
         <v>1067</v>
       </c>
-      <c r="C108" s="32"/>
-      <c r="D108" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E108" s="33">
+      <c r="C108" s="13"/>
+      <c r="D108" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108" s="14">
         <v>940</v>
       </c>
     </row>
     <row r="109" spans="2:5">
       <c r="B109" s="17"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E109" s="43">
+      <c r="C109" s="18"/>
+      <c r="D109" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="19">
         <v>1000</v>
       </c>
     </row>
@@ -2494,21 +2456,21 @@
       <c r="B110" s="12">
         <v>1068</v>
       </c>
-      <c r="C110" s="32"/>
-      <c r="D110" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E110" s="33">
+      <c r="C110" s="13"/>
+      <c r="D110" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" s="14">
         <v>1060</v>
       </c>
     </row>
     <row r="111" spans="2:5">
       <c r="B111" s="17"/>
-      <c r="C111" s="41"/>
-      <c r="D111" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E111" s="43">
+      <c r="C111" s="18"/>
+      <c r="D111" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="19">
         <v>1120</v>
       </c>
     </row>
@@ -2516,21 +2478,21 @@
       <c r="B112" s="12">
         <v>1069</v>
       </c>
-      <c r="C112" s="36"/>
-      <c r="D112" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E112" s="40">
+      <c r="C112" s="25"/>
+      <c r="D112" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E112" s="16">
         <v>1180</v>
       </c>
     </row>
     <row r="113" spans="2:5">
       <c r="B113" s="17"/>
-      <c r="C113" s="41"/>
-      <c r="D113" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E113" s="43">
+      <c r="C113" s="18"/>
+      <c r="D113" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="19">
         <v>1240</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/PropertyConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PropertyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18465" windowHeight="8325" tabRatio="809"/>
+    <workbookView windowWidth="20175" windowHeight="8325" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="PropertyConfig" sheetId="6" r:id="rId1"/>
@@ -1224,7 +1224,7 @@
   <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD4"/>
+      <selection activeCell="D4" sqref="D4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>

--- a/Unity/Assets/Config/Excel/PropertyConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PropertyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20175" windowHeight="8325" tabRatio="809"/>
+    <workbookView windowWidth="18705" windowHeight="8910" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="PropertyConfig" sheetId="6" r:id="rId1"/>
@@ -1224,7 +1224,7 @@
   <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>

--- a/Unity/Assets/Config/Excel/PropertyConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PropertyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18705" windowHeight="8910" tabRatio="809"/>
+    <workbookView windowWidth="24645" windowHeight="10455" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="PropertyConfig" sheetId="6" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <t>属性配置</t>
   </si>
   <si>
-    <t>Speed</t>
+    <t>移动速度</t>
   </si>
   <si>
     <t>AOI</t>
@@ -1224,7 +1224,7 @@
   <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
